--- a/TestData/60200000.xlsx
+++ b/TestData/60200000.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tokyomanamela/git/APIAutomation/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tokyomanamela/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6279A1E1-6560-354E-9F36-EB8667C8DB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04AF4F6-8B6B-734C-BD9B-0C1A3A1EF1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C803A493-06B4-7442-A1DD-EE01984397FF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{C803A493-06B4-7442-A1DD-EE01984397FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Requests" sheetId="1" r:id="rId1"/>
     <sheet name="Response" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,11 +35,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="245">
   <si>
     <t>TestCaseNumber</t>
   </si>
   <si>
+    <t>runMe</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
     <t>lifeAssuredType1</t>
   </si>
   <si>
@@ -64,6 +73,15 @@
     <t>Age4</t>
   </si>
   <si>
+    <t>TC_001_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing 18 years boundary </t>
+  </si>
+  <si>
     <t>Mainlife</t>
   </si>
   <si>
@@ -76,16 +94,253 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>ProductCode</t>
-  </si>
-  <si>
-    <t>runMe</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>TC_002_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing Middle number in 18-20 partition</t>
+  </si>
+  <si>
+    <t>TC_003_Rates_60200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing 20 years boundary </t>
+  </si>
+  <si>
+    <t>TC_004_Rates_60200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing 21 years boundary </t>
+  </si>
+  <si>
+    <t>TC_005_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing Middle number in 21-25 partition</t>
+  </si>
+  <si>
+    <t>TC_006_Rates_60200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing 25 years boundary </t>
+  </si>
+  <si>
+    <t>TC_007_Rates_60200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing 26 years boundary </t>
+  </si>
+  <si>
+    <t>TC_008_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing Middle number in 26-30 partition</t>
+  </si>
+  <si>
+    <t>TC_009_Rates_60200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing 30 years boundary </t>
+  </si>
+  <si>
+    <t>TC_010_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 31 years boundary</t>
+  </si>
+  <si>
+    <t>TC_011_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing middle number in 31 -35 partition</t>
+  </si>
+  <si>
+    <t>TC_012_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 35 years boundary</t>
+  </si>
+  <si>
+    <t>TC_013_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 36 years boundary</t>
+  </si>
+  <si>
+    <t>TC_014_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing middle number in 36 - 40 partition</t>
+  </si>
+  <si>
+    <t>TC_015_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 40 years boundary</t>
+  </si>
+  <si>
+    <t>TC_016_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 41 years boundary</t>
+  </si>
+  <si>
+    <t>TC_017_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing middle number in 41 - 45 partition</t>
+  </si>
+  <si>
+    <t>TC_018_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 45 years boundary</t>
+  </si>
+  <si>
+    <t>TC_019_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 46 years boundary</t>
+  </si>
+  <si>
+    <t>TC_020_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing middle number in 46 - 50 partition</t>
+  </si>
+  <si>
+    <t>TC_021_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 50 years boundary</t>
+  </si>
+  <si>
+    <t>TC_022_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 51 years boundary</t>
+  </si>
+  <si>
+    <t>TC_023_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing middle number in 51 - 55 partition</t>
+  </si>
+  <si>
+    <t>TC_024_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 55 years boundary</t>
+  </si>
+  <si>
+    <t>TC_025_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 56 years boundary</t>
+  </si>
+  <si>
+    <t>TC_026_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing middle number in 56 - 60 partition</t>
+  </si>
+  <si>
+    <t>TC_027_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 60 years boundary</t>
+  </si>
+  <si>
+    <t>TC_028_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 61 years boundary</t>
+  </si>
+  <si>
+    <t>TC_029_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing middle number in 61 - 65 partition</t>
+  </si>
+  <si>
+    <t>TC_030_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 65 years boundary</t>
+  </si>
+  <si>
+    <t>TC_031_Rates_60200000</t>
+  </si>
+  <si>
+    <t>testing 66 years boundary</t>
+  </si>
+  <si>
+    <t>TC_032_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing middle number 66 -70</t>
+  </si>
+  <si>
+    <t>TC_033_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 70 years boundary</t>
+  </si>
+  <si>
+    <t>TC_034_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 71 years boundary</t>
+  </si>
+  <si>
+    <t>TC_035_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing middle number 71 - 75 partition</t>
+  </si>
+  <si>
+    <t>TC_036_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 75 years boundary</t>
+  </si>
+  <si>
+    <t>TC_037_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 76 years boundary</t>
+  </si>
+  <si>
+    <t>TC_038_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing middle number in 76 - 79 partition</t>
+  </si>
+  <si>
+    <t>TC_039_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Testing 79 years boundary</t>
+  </si>
+  <si>
+    <t>TC_040_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Negetive testing with less than 18 years on main member, partner and parent</t>
+  </si>
+  <si>
+    <t>TC_041_Rates_60200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negetive testing with more than 79 years on main member, partner and parent </t>
+  </si>
+  <si>
+    <t>TC_042_Rates_60200000</t>
+  </si>
+  <si>
+    <t>Negetive testing with more than 18 years on child</t>
+  </si>
+  <si>
+    <t>statusCode</t>
   </si>
   <si>
     <t>productCode</t>
@@ -127,48 +382,57 @@
     <t>partnerPremiumAmount50K</t>
   </si>
   <si>
+    <t>ChildPremiumAmount5K</t>
+  </si>
+  <si>
+    <t>ChildPremiumAmount7_5K</t>
+  </si>
+  <si>
     <t>ChildPremiumAmount10K</t>
   </si>
   <si>
+    <t>ChildPremiumAmount15K</t>
+  </si>
+  <si>
     <t>ChildPremiumAmount20K</t>
   </si>
   <si>
-    <t>ChildPremiumAmount5K</t>
-  </si>
-  <si>
-    <t>ChildPremiumAmount7_5K</t>
-  </si>
-  <si>
     <t>ParentPremiumAmount10K</t>
   </si>
   <si>
+    <t>ParentPremiumAmount15K</t>
+  </si>
+  <si>
     <t>ParentPremiumAmount20K</t>
   </si>
   <si>
     <t>MainLife</t>
   </si>
   <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>162.0</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>ChildPremiumAmount15K</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>106.0</t>
-  </si>
-  <si>
-    <t>114.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
     <t>8.0</t>
   </si>
   <si>
+    <t>12.0</t>
+  </si>
+  <si>
     <t>16.0</t>
   </si>
   <si>
@@ -178,12 +442,6 @@
     <t>40.0</t>
   </si>
   <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>ParentPremiumAmount15K</t>
-  </si>
-  <si>
     <t>94.0</t>
   </si>
   <si>
@@ -196,12 +454,24 @@
     <t>152.0</t>
   </si>
   <si>
-    <t>162.0</t>
-  </si>
-  <si>
     <t>182.0</t>
   </si>
   <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
     <t>9.0</t>
   </si>
   <si>
@@ -211,85 +481,25 @@
     <t>17.0</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing 18 years boundary </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing 20 years boundary </t>
-  </si>
-  <si>
-    <t>Testing Middle number in 18-20 partition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing 21 years boundary </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing 25 years boundary </t>
-  </si>
-  <si>
-    <t>Testing Middle number in 21-25 partition</t>
-  </si>
-  <si>
-    <t>TC_001_Rates_60200000</t>
-  </si>
-  <si>
-    <t>TC_002_Rates_60200000</t>
-  </si>
-  <si>
-    <t>TC_003_Rates_60200000</t>
-  </si>
-  <si>
-    <t>TC_004_Rates_60200000</t>
-  </si>
-  <si>
-    <t>TC_005_Rates_60200000</t>
-  </si>
-  <si>
-    <t>TC_006_Rates_60200000</t>
-  </si>
-  <si>
-    <t>TC_007_Rates_60200000</t>
-  </si>
-  <si>
-    <t>TC_008_Rates_60200000</t>
-  </si>
-  <si>
-    <t>TC_009_Rates_60200000</t>
-  </si>
-  <si>
-    <t>TC_010_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 31 years boundary</t>
-  </si>
-  <si>
-    <t>TC_011_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing middle number in 31 -35 partition</t>
-  </si>
-  <si>
-    <t>TC_012_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 35 years boundary</t>
-  </si>
-  <si>
-    <t>TC_013_Rates_60200000</t>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>115.0</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>159.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
   </si>
   <si>
     <t>97.0</t>
@@ -325,63 +535,9 @@
     <t>25.0</t>
   </si>
   <si>
-    <t>Testing 36 years boundary</t>
-  </si>
-  <si>
-    <t>TC_014_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing middle number in 36 - 40 partition</t>
-  </si>
-  <si>
-    <t>TC_015_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 40 years boundary</t>
-  </si>
-  <si>
-    <t>TC_016_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 41 years boundary</t>
-  </si>
-  <si>
-    <t>TC_017_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing middle number in 41 - 45 partition</t>
-  </si>
-  <si>
-    <t>TC_018_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 45 years boundary</t>
-  </si>
-  <si>
-    <t>TC_019_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 46 years boundary</t>
-  </si>
-  <si>
-    <t>TC_020_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing middle number in 46 - 50 partition</t>
-  </si>
-  <si>
-    <t>TC_021_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 50 years boundary</t>
-  </si>
-  <si>
     <t>98.0</t>
   </si>
   <si>
-    <t>126.0</t>
-  </si>
-  <si>
     <t>140.0</t>
   </si>
   <si>
@@ -391,9 +547,6 @@
     <t>14.0</t>
   </si>
   <si>
-    <t>21.0</t>
-  </si>
-  <si>
     <t>49.0</t>
   </si>
   <si>
@@ -463,45 +616,6 @@
     <t>43.0</t>
   </si>
   <si>
-    <t>TC_022_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 51 years boundary</t>
-  </si>
-  <si>
-    <t>TC_023_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing middle number in 51 - 55 partition</t>
-  </si>
-  <si>
-    <t>TC_024_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 55 years boundary</t>
-  </si>
-  <si>
-    <t>TC_025_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 56 years boundary</t>
-  </si>
-  <si>
-    <t>TC_026_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing middle number in 56 - 60 partition</t>
-  </si>
-  <si>
-    <t>TC_027_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 60 years boundary</t>
-  </si>
-  <si>
-    <t>159.0</t>
-  </si>
-  <si>
     <t>183.0</t>
   </si>
   <si>
@@ -544,118 +658,118 @@
     <t>76.0</t>
   </si>
   <si>
-    <t>TC_028_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 61 years boundary</t>
-  </si>
-  <si>
-    <t>TC_029_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing middle number in 61 - 65 partition</t>
-  </si>
-  <si>
-    <t>TC_030_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 65 years boundary</t>
-  </si>
-  <si>
-    <t>TC_031_Rates_60200000</t>
-  </si>
-  <si>
-    <t>testing 66 years boundary</t>
-  </si>
-  <si>
-    <t>TC_033_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing middle number 66 -70</t>
-  </si>
-  <si>
-    <t>TC_034_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 70 years boundary</t>
-  </si>
-  <si>
-    <t>TC_032_Rates_60200000</t>
-  </si>
-  <si>
-    <t>TC_035_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 71 years boundary</t>
-  </si>
-  <si>
-    <t>TC_036_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing middle number 71 - 75 partition</t>
-  </si>
-  <si>
-    <t>TC_037_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 75 years boundary</t>
-  </si>
-  <si>
-    <t>TC_038_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing 76 years boundary</t>
-  </si>
-  <si>
-    <t>TC_039_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Testing middle number in 76 - 79 partition</t>
-  </si>
-  <si>
-    <t>Testing 79 years boundary</t>
-  </si>
-  <si>
-    <t>statusCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing 26 years boundary </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing 30 years boundary </t>
-  </si>
-  <si>
-    <t>Testing Middle number in 26-30 partition</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>115.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>TC_040_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Negetive testing with less than 18 years on main member, partner and parent</t>
-  </si>
-  <si>
-    <t>TC_041_Rates_60200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negetive testing with more than 79 years on main member, partner and parent </t>
-  </si>
-  <si>
-    <t>TC_042_Rates_60200000</t>
-  </si>
-  <si>
-    <t>Negetive testing with more than 18 years on child</t>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>222.0</t>
+  </si>
+  <si>
+    <t>267.0</t>
+  </si>
+  <si>
+    <t>402.0</t>
+  </si>
+  <si>
+    <t>537.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>242.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>288.0</t>
+  </si>
+  <si>
+    <t>355.0</t>
+  </si>
+  <si>
+    <t>556.0</t>
+  </si>
+  <si>
+    <t>757.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>254.0</t>
+  </si>
+  <si>
+    <t>362.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>156.0</t>
+  </si>
+  <si>
+    <t>210.0</t>
+  </si>
+  <si>
+    <t>377.0</t>
+  </si>
+  <si>
+    <t>471.0</t>
+  </si>
+  <si>
+    <t>753.0</t>
+  </si>
+  <si>
+    <t>1035.0</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>207.0</t>
+  </si>
+  <si>
+    <t>360.0</t>
+  </si>
+  <si>
+    <t>513.0</t>
+  </si>
+  <si>
+    <t>225.0</t>
+  </si>
+  <si>
+    <t>451.0</t>
+  </si>
+  <si>
+    <t>568.0</t>
+  </si>
+  <si>
+    <t>919.0</t>
+  </si>
+  <si>
+    <t>1270.0</t>
+  </si>
+  <si>
+    <t>195.0</t>
+  </si>
+  <si>
+    <t>258.0</t>
+  </si>
+  <si>
+    <t>447.0</t>
+  </si>
+  <si>
+    <t>636.0</t>
+  </si>
+  <si>
+    <t>281.0</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1258,10 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="22.5" style="15" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" style="15" customWidth="1"/>
@@ -1171,72 +1285,72 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="15">
         <v>18</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H2" s="15">
         <v>18</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J2" s="15">
         <v>0</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L2" s="15">
         <v>18</v>
@@ -1244,37 +1358,37 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="15">
         <v>19</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H3" s="15">
         <v>19</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J3" s="15">
         <v>1</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L3" s="15">
         <v>19</v>
@@ -1282,37 +1396,37 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F4" s="15">
         <v>20</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H4" s="15">
         <v>20</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J4" s="15">
         <v>2</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L4" s="15">
         <v>20</v>
@@ -1320,37 +1434,37 @@
     </row>
     <row r="5" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F5" s="20">
         <v>21</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H5" s="20">
         <v>21</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J5" s="20">
         <v>3</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L5" s="20">
         <v>21</v>
@@ -1358,37 +1472,37 @@
     </row>
     <row r="6" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="20">
         <v>23</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H6" s="20">
         <v>23</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J6" s="20">
         <v>4</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L6" s="20">
         <v>23</v>
@@ -1396,37 +1510,37 @@
     </row>
     <row r="7" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F7" s="20">
         <v>25</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H7" s="20">
         <v>25</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J7" s="20">
         <v>5</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L7" s="20">
         <v>25</v>
@@ -1434,37 +1548,37 @@
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4">
+        <v>60200000</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="4">
-        <v>60200000</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F8" s="4">
         <v>26</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H8" s="4">
         <v>26</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J8" s="4">
         <v>6</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L8" s="4">
         <v>26</v>
@@ -1472,37 +1586,37 @@
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4">
+        <v>60200000</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="4">
-        <v>60200000</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F9" s="4">
         <v>28</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H9" s="4">
         <v>28</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J9" s="4">
         <v>7</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L9" s="4">
         <v>28</v>
@@ -1510,37 +1624,37 @@
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4">
+        <v>60200000</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="4">
-        <v>60200000</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F10" s="4">
         <v>30</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H10" s="4">
         <v>30</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J10" s="4">
         <v>8</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L10" s="4">
         <v>30</v>
@@ -1548,37 +1662,37 @@
     </row>
     <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F11" s="20">
         <v>31</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H11" s="20">
         <v>31</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J11" s="20">
         <v>9</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L11" s="20">
         <v>31</v>
@@ -1586,37 +1700,37 @@
     </row>
     <row r="12" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F12" s="20">
         <v>33</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H12" s="20">
         <v>33</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J12" s="20">
         <v>10</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L12" s="20">
         <v>33</v>
@@ -1624,37 +1738,37 @@
     </row>
     <row r="13" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F13" s="20">
         <v>35</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H13" s="20">
         <v>35</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J13" s="20">
         <v>11</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L13" s="20">
         <v>35</v>
@@ -1662,37 +1776,37 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F14" s="15">
         <v>36</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H14" s="15">
         <v>36</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J14" s="15">
         <v>12</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L14" s="15">
         <v>36</v>
@@ -1700,37 +1814,37 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F15" s="15">
         <v>38</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H15" s="15">
         <v>38</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J15" s="15">
         <v>13</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L15" s="15">
         <v>38</v>
@@ -1738,37 +1852,37 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F16" s="15">
         <v>40</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H16" s="15">
         <v>40</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J16" s="15">
         <v>14</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L16" s="15">
         <v>40</v>
@@ -1776,37 +1890,37 @@
     </row>
     <row r="17" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F17" s="20">
         <v>41</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H17" s="20">
         <v>41</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J17" s="20">
         <v>15</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L17" s="20">
         <v>41</v>
@@ -1814,37 +1928,37 @@
     </row>
     <row r="18" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F18" s="20">
         <v>43</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H18" s="20">
         <v>43</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J18" s="20">
         <v>16</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L18" s="20">
         <v>43</v>
@@ -1852,37 +1966,37 @@
     </row>
     <row r="19" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F19" s="20">
         <v>45</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H19" s="20">
         <v>45</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J19" s="20">
         <v>17</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L19" s="20">
         <v>45</v>
@@ -1890,37 +2004,37 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F20" s="15">
         <v>46</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H20" s="15">
         <v>46</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J20" s="15">
         <v>18</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L20" s="15">
         <v>46</v>
@@ -1928,37 +2042,37 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F21" s="15">
         <v>48</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H21" s="15">
         <v>48</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J21" s="15">
         <v>0</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L21" s="15">
         <v>48</v>
@@ -1966,37 +2080,37 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F22" s="15">
         <v>50</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H22" s="15">
         <v>50</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J22" s="15">
         <v>1</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L22" s="15">
         <v>50</v>
@@ -2004,37 +2118,37 @@
     </row>
     <row r="23" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F23" s="20">
         <v>51</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H23" s="20">
         <v>51</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J23" s="20">
         <v>2</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L23" s="20">
         <v>51</v>
@@ -2042,37 +2156,37 @@
     </row>
     <row r="24" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F24" s="20">
         <v>53</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H24" s="20">
         <v>53</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J24" s="20">
         <v>3</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L24" s="20">
         <v>53</v>
@@ -2080,37 +2194,37 @@
     </row>
     <row r="25" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F25" s="20">
         <v>55</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H25" s="20">
         <v>55</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J25" s="20">
         <v>4</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L25" s="20">
         <v>55</v>
@@ -2118,37 +2232,37 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F26" s="15">
         <v>56</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H26" s="15">
         <v>56</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J26" s="15">
         <v>5</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L26" s="15">
         <v>56</v>
@@ -2156,37 +2270,37 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F27" s="15">
         <v>58</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H27" s="15">
         <v>58</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J27" s="15">
         <v>6</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L27" s="15">
         <v>58</v>
@@ -2194,37 +2308,37 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F28" s="15">
         <v>60</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H28" s="15">
         <v>60</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J28" s="15">
         <v>7</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L28" s="15">
         <v>60</v>
@@ -2232,37 +2346,37 @@
     </row>
     <row r="29" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F29" s="20">
         <v>61</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H29" s="20">
         <v>61</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J29" s="20">
         <v>8</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L29" s="20">
         <v>61</v>
@@ -2270,37 +2384,37 @@
     </row>
     <row r="30" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F30" s="20">
         <v>63</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H30" s="20">
         <v>63</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J30" s="20">
         <v>9</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L30" s="20">
         <v>63</v>
@@ -2308,37 +2422,37 @@
     </row>
     <row r="31" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F31" s="20">
         <v>65</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H31" s="20">
         <v>65</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J31" s="20">
         <v>10</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L31" s="20">
         <v>65</v>
@@ -2346,37 +2460,37 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F32" s="15">
         <v>66</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H32" s="15">
         <v>66</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J32" s="15">
         <v>11</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L32" s="15">
         <v>66</v>
@@ -2384,37 +2498,37 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F33" s="15">
         <v>68</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H33" s="15">
         <v>68</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J33" s="15">
         <v>12</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L33" s="15">
         <v>68</v>
@@ -2422,37 +2536,37 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F34" s="15">
         <v>70</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H34" s="15">
         <v>70</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J34" s="15">
         <v>13</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L34" s="15">
         <v>70</v>
@@ -2460,37 +2574,37 @@
     </row>
     <row r="35" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="B35" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F35" s="20">
         <v>71</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H35" s="20">
         <v>71</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J35" s="20">
         <v>14</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L35" s="20">
         <v>71</v>
@@ -2498,37 +2612,37 @@
     </row>
     <row r="36" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="B36" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F36" s="20">
         <v>73</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H36" s="20">
         <v>73</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J36" s="20">
         <v>15</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L36" s="20">
         <v>73</v>
@@ -2536,37 +2650,37 @@
     </row>
     <row r="37" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="B37" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="20">
+        <v>60200000</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="20">
-        <v>60200000</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="F37" s="20">
         <v>75</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H37" s="20">
         <v>75</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J37" s="20">
         <v>16</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L37" s="20">
         <v>75</v>
@@ -2574,37 +2688,37 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F38" s="15">
         <v>76</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H38" s="15">
         <v>76</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J38" s="15">
         <v>17</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L38" s="15">
         <v>76</v>
@@ -2612,37 +2726,37 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F39" s="15">
         <v>78</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H39" s="15">
         <v>78</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J39" s="15">
         <v>18</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L39" s="15">
         <v>78</v>
@@ -2650,37 +2764,37 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="15">
+        <v>60200000</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D40" s="15">
-        <v>60200000</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F40" s="15">
         <v>79</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H40" s="15">
         <v>79</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J40" s="15">
         <v>0</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L40" s="15">
         <v>79</v>
@@ -2688,37 +2802,37 @@
     </row>
     <row r="41" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="B41" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="23">
+        <v>60200000</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="23">
-        <v>60200000</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>9</v>
       </c>
       <c r="F41" s="23">
         <v>17</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H41" s="23">
         <v>17</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J41" s="23">
         <v>0</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L41" s="23">
         <v>17</v>
@@ -2726,37 +2840,37 @@
     </row>
     <row r="42" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="B42" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="23">
+        <v>60200000</v>
+      </c>
+      <c r="E42" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" s="23">
-        <v>60200000</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>9</v>
       </c>
       <c r="F42" s="23">
         <v>80</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H42" s="23">
         <v>80</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J42" s="23">
         <v>0</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L42" s="23">
         <v>80</v>
@@ -2764,37 +2878,37 @@
     </row>
     <row r="43" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="B43" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="23">
+        <v>60200000</v>
+      </c>
+      <c r="E43" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D43" s="23">
-        <v>60200000</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>9</v>
       </c>
       <c r="F43" s="23">
         <v>80</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H43" s="23">
         <v>80</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J43" s="23">
         <v>0</v>
       </c>
       <c r="K43" s="23" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L43" s="23">
         <v>80</v>
@@ -2809,11 +2923,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8002EC01-3CA7-5447-A00F-BC3DBE81A151}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
@@ -2846,70 +2960,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="X1" s="11"/>
       <c r="Y1" s="2"/>
@@ -2917,7 +3031,7 @@
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B2" s="13">
         <v>200</v>
@@ -2926,70 +3040,70 @@
         <v>60200000</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="X2" s="12"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B3" s="13">
         <v>200</v>
@@ -2998,70 +3112,70 @@
         <v>60200000</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="X3" s="12"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B4" s="13">
         <v>200</v>
@@ -3070,70 +3184,70 @@
         <v>60200000</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7">
         <v>200</v>
@@ -3142,70 +3256,70 @@
         <v>60200000</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="X5" s="17"/>
     </row>
     <row r="6" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7">
         <v>200</v>
@@ -3214,70 +3328,70 @@
         <v>60200000</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7">
         <v>200</v>
@@ -3286,70 +3400,70 @@
         <v>60200000</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="X7" s="17"/>
     </row>
     <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B8" s="13">
         <v>200</v>
@@ -3358,70 +3472,70 @@
         <v>60200000</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="H8" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="W8" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="V8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="B9" s="13">
         <v>200</v>
@@ -3430,70 +3544,70 @@
         <v>60200000</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="H9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="W9" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="V9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W9" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B10" s="13">
         <v>200</v>
@@ -3502,69 +3616,69 @@
         <v>60200000</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="W10" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="V10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W10" s="16" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B11" s="7">
         <v>200</v>
@@ -3573,69 +3687,69 @@
         <v>60200000</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B12" s="7">
         <v>200</v>
@@ -3644,69 +3758,69 @@
         <v>60200000</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B13" s="7">
         <v>200</v>
@@ -3715,69 +3829,69 @@
         <v>60200000</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B14" s="13">
         <v>200</v>
@@ -3786,69 +3900,69 @@
         <v>60200000</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="B15" s="13">
         <v>200</v>
@@ -3857,69 +3971,69 @@
         <v>60200000</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B16" s="13">
         <v>200</v>
@@ -3928,69 +4042,69 @@
         <v>60200000</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B17" s="7">
         <v>200</v>
@@ -3999,69 +4113,69 @@
         <v>60200000</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="B18" s="7">
         <v>200</v>
@@ -4070,69 +4184,69 @@
         <v>60200000</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B19" s="7">
         <v>200</v>
@@ -4141,69 +4255,69 @@
         <v>60200000</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="V19" s="9" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="B20" s="13">
         <v>200</v>
@@ -4212,69 +4326,69 @@
         <v>60200000</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B21" s="13">
         <v>200</v>
@@ -4283,69 +4397,69 @@
         <v>60200000</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="B22" s="13">
         <v>200</v>
@@ -4354,69 +4468,69 @@
         <v>60200000</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="B23" s="7">
         <v>200</v>
@@ -4425,69 +4539,69 @@
         <v>60200000</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="W23" s="9" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="B24" s="7">
         <v>200</v>
@@ -4496,69 +4610,69 @@
         <v>60200000</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="W24" s="9" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="B25" s="7">
         <v>200</v>
@@ -4567,69 +4681,69 @@
         <v>60200000</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="B26" s="13">
         <v>200</v>
@@ -4638,69 +4752,69 @@
         <v>60200000</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="B27" s="13">
         <v>200</v>
@@ -4709,69 +4823,69 @@
         <v>60200000</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="B28" s="13">
         <v>200</v>
@@ -4780,69 +4894,69 @@
         <v>60200000</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B29" s="7">
         <v>200</v>
@@ -4851,31 +4965,69 @@
         <v>60200000</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="30" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="B30" s="7">
         <v>200</v>
@@ -4884,30 +5036,69 @@
         <v>60200000</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="31" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="B31" s="7">
         <v>200</v>
@@ -4916,31 +5107,69 @@
         <v>60200000</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B32" s="13">
         <v>200</v>
@@ -4949,31 +5178,69 @@
         <v>60200000</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="T32" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="B33" s="13">
         <v>200</v>
@@ -4982,31 +5249,69 @@
         <v>60200000</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="T33" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="U33" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="V33" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="W33" s="13" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="B34" s="13">
         <v>200</v>
@@ -5015,31 +5320,69 @@
         <v>60200000</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="U34" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="V34" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="W34" s="13" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="35" spans="1:23" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="B35" s="7">
         <v>200</v>
@@ -5048,31 +5391,69 @@
         <v>60200000</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="36" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="B36" s="7">
         <v>200</v>
@@ -5081,31 +5462,69 @@
         <v>60200000</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="V36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="W36" s="7" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="37" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="B37" s="7">
         <v>200</v>
@@ -5114,31 +5533,69 @@
         <v>60200000</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="B38" s="13">
         <v>200</v>
@@ -5147,31 +5604,69 @@
         <v>60200000</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="T38" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="U38" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="V38" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="W38" s="13" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="B39" s="13">
         <v>200</v>
@@ -5180,31 +5675,69 @@
         <v>60200000</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="S39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="T39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="U39" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="V39" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="W39" s="13" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="B40" s="13">
         <v>200</v>
@@ -5213,31 +5746,69 @@
         <v>60200000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="T40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="U40" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="V40" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="41" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="B41" s="21">
         <v>400</v>
@@ -5246,7 +5817,7 @@
         <v>60200000</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
@@ -5270,7 +5841,7 @@
     </row>
     <row r="42" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="B42" s="21">
         <v>400</v>
@@ -5279,7 +5850,7 @@
         <v>60200000</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
@@ -5303,7 +5874,7 @@
     </row>
     <row r="43" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="B43" s="21">
         <v>400</v>
@@ -5312,7 +5883,7 @@
         <v>60200000</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
